--- a/examples/VirusContagion/data/excel_source/calibrator_params_scenarios.xlsx
+++ b/examples/VirusContagion/data/excel_source/calibrator_params_scenarios.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Dropbox\ABM4ALL\Melodie\examples\Covid\data\excel_source\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30240" windowHeight="13060"/>
+    <workbookView windowWidth="28000" windowHeight="13120"/>
   </bookViews>
   <sheets>
     <sheet name="calibrator_scenario" sheetId="2" r:id="rId1"/>
@@ -19,21 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>number_of_path</t>
-  </si>
-  <si>
-    <t>mutation_prob</t>
-  </si>
-  <si>
-    <t>infection_probability_min</t>
-  </si>
-  <si>
-    <t>infection_probability_max</t>
   </si>
   <si>
     <t>number_of_generation</t>
@@ -42,14 +28,29 @@
     <t>population</t>
   </si>
   <si>
+    <t>mutation_prob</t>
+  </si>
+  <si>
     <t>param_code_length</t>
+  </si>
+  <si>
+    <t>infection_probability_min</t>
+  </si>
+  <si>
+    <t>infection_probability_max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,21 +59,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -80,24 +405,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -355,23 +966,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="27.90625" customWidth="1"/>
-    <col min="3" max="3" width="28.36328125" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" customWidth="1"/>
+    <col min="3" max="3" width="28.3671875" customWidth="1"/>
+    <col min="4" max="4" width="18.3671875" customWidth="1"/>
     <col min="5" max="5" width="22.90625" customWidth="1"/>
     <col min="6" max="6" width="25.453125" customWidth="1"/>
     <col min="7" max="7" width="22.453125" customWidth="1"/>
@@ -386,22 +997,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -409,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -431,8 +1042,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>